--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H2">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I2">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J2">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.64325583094384</v>
+        <v>0.3670103333333334</v>
       </c>
       <c r="N2">
-        <v>2.64325583094384</v>
+        <v>1.101031</v>
       </c>
       <c r="O2">
-        <v>0.2833749432912762</v>
+        <v>0.03082745086208388</v>
       </c>
       <c r="P2">
-        <v>0.2833749432912762</v>
+        <v>0.0314265409731758</v>
       </c>
       <c r="Q2">
-        <v>14.46961309540099</v>
+        <v>2.144493003786889</v>
       </c>
       <c r="R2">
-        <v>14.46961309540099</v>
+        <v>19.300437034082</v>
       </c>
       <c r="S2">
-        <v>0.04658213846324964</v>
+        <v>0.005115691983871412</v>
       </c>
       <c r="T2">
-        <v>0.04658213846324964</v>
+        <v>0.005642451250177865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H3">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I3">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J3">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.03974013899234</v>
+        <v>4.583351333333333</v>
       </c>
       <c r="N3">
-        <v>6.03974013899234</v>
+        <v>13.750054</v>
       </c>
       <c r="O3">
-        <v>0.6475010853451373</v>
+        <v>0.3849838142940569</v>
       </c>
       <c r="P3">
-        <v>0.6475010853451373</v>
+        <v>0.3924654577522156</v>
       </c>
       <c r="Q3">
-        <v>33.06252160116369</v>
+        <v>26.78116656542089</v>
       </c>
       <c r="R3">
-        <v>33.06252160116369</v>
+        <v>241.030499088788</v>
       </c>
       <c r="S3">
-        <v>0.1064384340490141</v>
+        <v>0.06388652183780387</v>
       </c>
       <c r="T3">
-        <v>0.1064384340490141</v>
+        <v>0.07046487281676278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H4">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I4">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J4">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.64477239322105</v>
+        <v>6.274087999999999</v>
       </c>
       <c r="N4">
-        <v>0.64477239322105</v>
+        <v>18.822264</v>
       </c>
       <c r="O4">
-        <v>0.06912397136358667</v>
+        <v>0.5269991658483459</v>
       </c>
       <c r="P4">
-        <v>0.06912397136358667</v>
+        <v>0.5372406869597056</v>
       </c>
       <c r="Q4">
-        <v>3.529589135975906</v>
+        <v>36.66037873904533</v>
       </c>
       <c r="R4">
-        <v>3.529589135975906</v>
+        <v>329.9434086514079</v>
       </c>
       <c r="S4">
-        <v>0.01136283387581863</v>
+        <v>0.08745340055194761</v>
       </c>
       <c r="T4">
-        <v>0.01136283387581863</v>
+        <v>0.09645841673665664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.39982094805066</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H5">
-        <v>4.39982094805066</v>
+        <v>17.529422</v>
       </c>
       <c r="I5">
-        <v>0.1321220364884695</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J5">
-        <v>0.1321220364884695</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.64325583094384</v>
+        <v>0.6808595</v>
       </c>
       <c r="N5">
-        <v>2.64325583094384</v>
+        <v>1.361719</v>
       </c>
       <c r="O5">
-        <v>0.2833749432912762</v>
+        <v>0.05718956899551328</v>
       </c>
       <c r="P5">
-        <v>0.2833749432912762</v>
+        <v>0.038867314314903</v>
       </c>
       <c r="Q5">
-        <v>11.62985237604376</v>
+        <v>3.978357832736333</v>
       </c>
       <c r="R5">
-        <v>11.62985237604376</v>
+        <v>23.870146996418</v>
       </c>
       <c r="S5">
-        <v>0.03744007459744797</v>
+        <v>0.009490379888375613</v>
       </c>
       <c r="T5">
-        <v>0.03744007459744797</v>
+        <v>0.006978398495538228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.39982094805066</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H6">
-        <v>4.39982094805066</v>
+        <v>14.023321</v>
       </c>
       <c r="I6">
-        <v>0.1321220364884695</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J6">
-        <v>0.1321220364884695</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.03974013899234</v>
+        <v>0.3670103333333334</v>
       </c>
       <c r="N6">
-        <v>6.03974013899234</v>
+        <v>1.101031</v>
       </c>
       <c r="O6">
-        <v>0.6475010853451373</v>
+        <v>0.03082745086208388</v>
       </c>
       <c r="P6">
-        <v>0.6475010853451373</v>
+        <v>0.0314265409731758</v>
       </c>
       <c r="Q6">
-        <v>26.5737751843209</v>
+        <v>1.715567904883445</v>
       </c>
       <c r="R6">
-        <v>26.5737751843209</v>
+        <v>15.440111143951</v>
       </c>
       <c r="S6">
-        <v>0.08554916202429384</v>
+        <v>0.00409249037572121</v>
       </c>
       <c r="T6">
-        <v>0.08554916202429384</v>
+        <v>0.004513891279934702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.39982094805066</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H7">
-        <v>4.39982094805066</v>
+        <v>14.023321</v>
       </c>
       <c r="I7">
-        <v>0.1321220364884695</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J7">
-        <v>0.1321220364884695</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.64477239322105</v>
+        <v>4.583351333333333</v>
       </c>
       <c r="N7">
-        <v>0.64477239322105</v>
+        <v>13.750054</v>
       </c>
       <c r="O7">
-        <v>0.06912397136358667</v>
+        <v>0.3849838142940569</v>
       </c>
       <c r="P7">
-        <v>0.06912397136358667</v>
+        <v>0.3924654577522156</v>
       </c>
       <c r="Q7">
-        <v>2.836883082418733</v>
+        <v>21.42460233437044</v>
       </c>
       <c r="R7">
-        <v>2.836883082418733</v>
+        <v>192.821421009334</v>
       </c>
       <c r="S7">
-        <v>0.00913279986672772</v>
+        <v>0.05110842806482916</v>
       </c>
       <c r="T7">
-        <v>0.00913279986672772</v>
+        <v>0.05637102756346665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.15698887839618</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H8">
-        <v>7.15698887839618</v>
+        <v>14.023321</v>
       </c>
       <c r="I8">
-        <v>0.2149169152344658</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J8">
-        <v>0.2149169152344658</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.64325583094384</v>
+        <v>6.274087999999999</v>
       </c>
       <c r="N8">
-        <v>2.64325583094384</v>
+        <v>18.822264</v>
       </c>
       <c r="O8">
-        <v>0.2833749432912762</v>
+        <v>0.5269991658483459</v>
       </c>
       <c r="P8">
-        <v>0.2833749432912762</v>
+        <v>0.5372406869597056</v>
       </c>
       <c r="Q8">
-        <v>18.91775258482091</v>
+        <v>29.32785000208267</v>
       </c>
       <c r="R8">
-        <v>18.91775258482091</v>
+        <v>263.950650018744</v>
       </c>
       <c r="S8">
-        <v>0.06090206866690275</v>
+        <v>0.06996163983510345</v>
       </c>
       <c r="T8">
-        <v>0.06090206866690275</v>
+        <v>0.07716554151357123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.15698887839618</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H9">
-        <v>7.15698887839618</v>
+        <v>14.023321</v>
       </c>
       <c r="I9">
-        <v>0.2149169152344658</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J9">
-        <v>0.2149169152344658</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.03974013899234</v>
+        <v>0.6808595</v>
       </c>
       <c r="N9">
-        <v>6.03974013899234</v>
+        <v>1.361719</v>
       </c>
       <c r="O9">
-        <v>0.6475010853451373</v>
+        <v>0.05718956899551328</v>
       </c>
       <c r="P9">
-        <v>0.6475010853451373</v>
+        <v>0.038867314314903</v>
       </c>
       <c r="Q9">
-        <v>43.22635300317118</v>
+        <v>3.182637108133167</v>
       </c>
       <c r="R9">
-        <v>43.22635300317118</v>
+        <v>19.095822648799</v>
       </c>
       <c r="S9">
-        <v>0.1391589358733455</v>
+        <v>0.007592186644068209</v>
       </c>
       <c r="T9">
-        <v>0.1391589358733455</v>
+        <v>0.005582632568766366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.15698887839618</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H10">
-        <v>7.15698887839618</v>
+        <v>21.713777</v>
       </c>
       <c r="I10">
-        <v>0.2149169152344658</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J10">
-        <v>0.2149169152344658</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.64477239322105</v>
+        <v>0.3670103333333334</v>
       </c>
       <c r="N10">
-        <v>0.64477239322105</v>
+        <v>1.101031</v>
       </c>
       <c r="O10">
-        <v>0.06912397136358667</v>
+        <v>0.03082745086208388</v>
       </c>
       <c r="P10">
-        <v>0.06912397136358667</v>
+        <v>0.0314265409731758</v>
       </c>
       <c r="Q10">
-        <v>4.614628847379943</v>
+        <v>2.656393511565223</v>
       </c>
       <c r="R10">
-        <v>4.614628847379943</v>
+        <v>23.907541604087</v>
       </c>
       <c r="S10">
-        <v>0.0148559106942176</v>
+        <v>0.006336831581695701</v>
       </c>
       <c r="T10">
-        <v>0.0148559106942176</v>
+        <v>0.006989330748026568</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.1266097744837</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H11">
-        <v>9.1266097744837</v>
+        <v>21.713777</v>
       </c>
       <c r="I11">
-        <v>0.2740625775179781</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J11">
-        <v>0.2740625775179781</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.64325583094384</v>
+        <v>4.583351333333333</v>
       </c>
       <c r="N11">
-        <v>2.64325583094384</v>
+        <v>13.750054</v>
       </c>
       <c r="O11">
-        <v>0.2833749432912762</v>
+        <v>0.3849838142940569</v>
       </c>
       <c r="P11">
-        <v>0.2833749432912762</v>
+        <v>0.3924654577522156</v>
       </c>
       <c r="Q11">
-        <v>24.12396450315309</v>
+        <v>33.17395625488422</v>
       </c>
       <c r="R11">
-        <v>24.12396450315309</v>
+        <v>298.565606293958</v>
       </c>
       <c r="S11">
-        <v>0.07766246736241803</v>
+        <v>0.07913653333759112</v>
       </c>
       <c r="T11">
-        <v>0.07766246736241803</v>
+        <v>0.08728516745598051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.1266097744837</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H12">
-        <v>9.1266097744837</v>
+        <v>21.713777</v>
       </c>
       <c r="I12">
-        <v>0.2740625775179781</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J12">
-        <v>0.2740625775179781</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.03974013899234</v>
+        <v>6.274087999999999</v>
       </c>
       <c r="N12">
-        <v>6.03974013899234</v>
+        <v>18.822264</v>
       </c>
       <c r="O12">
-        <v>0.6475010853451373</v>
+        <v>0.5269991658483459</v>
       </c>
       <c r="P12">
-        <v>0.6475010853451373</v>
+        <v>0.5372406869597056</v>
       </c>
       <c r="Q12">
-        <v>55.12235138786904</v>
+        <v>45.41138257012533</v>
       </c>
       <c r="R12">
-        <v>55.12235138786904</v>
+        <v>408.7024431311279</v>
       </c>
       <c r="S12">
-        <v>0.1774558163953767</v>
+        <v>0.1083289362009008</v>
       </c>
       <c r="T12">
-        <v>0.1774558163953767</v>
+        <v>0.119483491856881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.1266097744837</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H13">
-        <v>9.1266097744837</v>
+        <v>21.713777</v>
       </c>
       <c r="I13">
-        <v>0.2740625775179781</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J13">
-        <v>0.2740625775179781</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.64477239322105</v>
+        <v>0.6808595</v>
       </c>
       <c r="N13">
-        <v>0.64477239322105</v>
+        <v>1.361719</v>
       </c>
       <c r="O13">
-        <v>0.06912397136358667</v>
+        <v>0.05718956899551328</v>
       </c>
       <c r="P13">
-        <v>0.06912397136358667</v>
+        <v>0.038867314314903</v>
       </c>
       <c r="Q13">
-        <v>5.884586026288482</v>
+        <v>4.928010450443833</v>
       </c>
       <c r="R13">
-        <v>5.884586026288482</v>
+        <v>29.568062702663</v>
       </c>
       <c r="S13">
-        <v>0.01894429376018347</v>
+        <v>0.01175577794530093</v>
       </c>
       <c r="T13">
-        <v>0.01894429376018347</v>
+        <v>0.008644174847821713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.14360676672093</v>
+        <v>9.455236333333334</v>
       </c>
       <c r="H14">
-        <v>7.14360676672093</v>
+        <v>28.365709</v>
       </c>
       <c r="I14">
-        <v>0.2145150643710043</v>
+        <v>0.2685300053219963</v>
       </c>
       <c r="J14">
-        <v>0.2145150643710043</v>
+        <v>0.290534212024489</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.64325583094384</v>
+        <v>0.3670103333333334</v>
       </c>
       <c r="N14">
-        <v>2.64325583094384</v>
+        <v>1.101031</v>
       </c>
       <c r="O14">
-        <v>0.2833749432912762</v>
+        <v>0.03082745086208388</v>
       </c>
       <c r="P14">
-        <v>0.2833749432912762</v>
+        <v>0.0314265409731758</v>
       </c>
       <c r="Q14">
-        <v>18.88238024010497</v>
+        <v>3.470169438442112</v>
       </c>
       <c r="R14">
-        <v>18.88238024010497</v>
+        <v>31.231524945979</v>
       </c>
       <c r="S14">
-        <v>0.06078819420125781</v>
+        <v>0.008278095544058964</v>
       </c>
       <c r="T14">
-        <v>0.06078819420125781</v>
+        <v>0.009130485318296949</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.14360676672093</v>
+        <v>9.455236333333334</v>
       </c>
       <c r="H15">
-        <v>7.14360676672093</v>
+        <v>28.365709</v>
       </c>
       <c r="I15">
-        <v>0.2145150643710043</v>
+        <v>0.2685300053219963</v>
       </c>
       <c r="J15">
-        <v>0.2145150643710043</v>
+        <v>0.290534212024489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.03974013899234</v>
+        <v>4.583351333333333</v>
       </c>
       <c r="N15">
-        <v>6.03974013899234</v>
+        <v>13.750054</v>
       </c>
       <c r="O15">
-        <v>0.6475010853451373</v>
+        <v>0.3849838142940569</v>
       </c>
       <c r="P15">
-        <v>0.6475010853451373</v>
+        <v>0.3924654577522156</v>
       </c>
       <c r="Q15">
-        <v>43.1455285261417</v>
+        <v>43.33667005536511</v>
       </c>
       <c r="R15">
-        <v>43.1455285261417</v>
+        <v>390.030030498286</v>
       </c>
       <c r="S15">
-        <v>0.1388987370031073</v>
+        <v>0.1033797057012655</v>
       </c>
       <c r="T15">
-        <v>0.1388987370031073</v>
+        <v>0.1140246425148703</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.455236333333334</v>
+      </c>
+      <c r="H16">
+        <v>28.365709</v>
+      </c>
+      <c r="I16">
+        <v>0.2685300053219963</v>
+      </c>
+      <c r="J16">
+        <v>0.290534212024489</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.274087999999999</v>
+      </c>
+      <c r="N16">
+        <v>18.822264</v>
+      </c>
+      <c r="O16">
+        <v>0.5269991658483459</v>
+      </c>
+      <c r="P16">
+        <v>0.5372406869597056</v>
+      </c>
+      <c r="Q16">
+        <v>59.32298481613066</v>
+      </c>
+      <c r="R16">
+        <v>533.9068633451759</v>
+      </c>
+      <c r="S16">
+        <v>0.141515088809944</v>
+      </c>
+      <c r="T16">
+        <v>0.1560867996533332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.455236333333334</v>
+      </c>
+      <c r="H17">
+        <v>28.365709</v>
+      </c>
+      <c r="I17">
+        <v>0.2685300053219963</v>
+      </c>
+      <c r="J17">
+        <v>0.290534212024489</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6808595</v>
+      </c>
+      <c r="N17">
+        <v>1.361719</v>
+      </c>
+      <c r="O17">
+        <v>0.05718956899551328</v>
+      </c>
+      <c r="P17">
+        <v>0.038867314314903</v>
+      </c>
+      <c r="Q17">
+        <v>6.437687482295166</v>
+      </c>
+      <c r="R17">
+        <v>38.626124893771</v>
+      </c>
+      <c r="S17">
+        <v>0.01535711526672786</v>
+      </c>
+      <c r="T17">
+        <v>0.01129228453798848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7.14360676672093</v>
-      </c>
-      <c r="H16">
-        <v>7.14360676672093</v>
-      </c>
-      <c r="I16">
-        <v>0.2145150643710043</v>
-      </c>
-      <c r="J16">
-        <v>0.2145150643710043</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.64477239322105</v>
-      </c>
-      <c r="N16">
-        <v>0.64477239322105</v>
-      </c>
-      <c r="O16">
-        <v>0.06912397136358667</v>
-      </c>
-      <c r="P16">
-        <v>0.06912397136358667</v>
-      </c>
-      <c r="Q16">
-        <v>4.606000431208741</v>
-      </c>
-      <c r="R16">
-        <v>4.606000431208741</v>
-      </c>
-      <c r="S16">
-        <v>0.01482813316663925</v>
-      </c>
-      <c r="T16">
-        <v>0.01482813316663925</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.000355000000001</v>
+      </c>
+      <c r="H18">
+        <v>16.00071</v>
+      </c>
+      <c r="I18">
+        <v>0.2272111764307947</v>
+      </c>
+      <c r="J18">
+        <v>0.1638863908419269</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.3670103333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.101031</v>
+      </c>
+      <c r="O18">
+        <v>0.03082745086208388</v>
+      </c>
+      <c r="P18">
+        <v>0.0314265409731758</v>
+      </c>
+      <c r="Q18">
+        <v>2.936212955335001</v>
+      </c>
+      <c r="R18">
+        <v>17.61727773201</v>
+      </c>
+      <c r="S18">
+        <v>0.007004341376736593</v>
+      </c>
+      <c r="T18">
+        <v>0.005150382376739718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.000355000000001</v>
+      </c>
+      <c r="H19">
+        <v>16.00071</v>
+      </c>
+      <c r="I19">
+        <v>0.2272111764307947</v>
+      </c>
+      <c r="J19">
+        <v>0.1638863908419269</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.583351333333333</v>
+      </c>
+      <c r="N19">
+        <v>13.750054</v>
+      </c>
+      <c r="O19">
+        <v>0.3849838142940569</v>
+      </c>
+      <c r="P19">
+        <v>0.3924654577522156</v>
+      </c>
+      <c r="Q19">
+        <v>36.66843775639</v>
+      </c>
+      <c r="R19">
+        <v>220.01062653834</v>
+      </c>
+      <c r="S19">
+        <v>0.08747262535256725</v>
+      </c>
+      <c r="T19">
+        <v>0.06431974740113533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.000355000000001</v>
+      </c>
+      <c r="H20">
+        <v>16.00071</v>
+      </c>
+      <c r="I20">
+        <v>0.2272111764307947</v>
+      </c>
+      <c r="J20">
+        <v>0.1638863908419269</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.274087999999999</v>
+      </c>
+      <c r="N20">
+        <v>18.822264</v>
+      </c>
+      <c r="O20">
+        <v>0.5269991658483459</v>
+      </c>
+      <c r="P20">
+        <v>0.5372406869597056</v>
+      </c>
+      <c r="Q20">
+        <v>50.19493130124</v>
+      </c>
+      <c r="R20">
+        <v>301.16958780744</v>
+      </c>
+      <c r="S20">
+        <v>0.1197401004504502</v>
+      </c>
+      <c r="T20">
+        <v>0.0880464371992636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.000355000000001</v>
+      </c>
+      <c r="H21">
+        <v>16.00071</v>
+      </c>
+      <c r="I21">
+        <v>0.2272111764307947</v>
+      </c>
+      <c r="J21">
+        <v>0.1638863908419269</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6808595</v>
+      </c>
+      <c r="N21">
+        <v>1.361719</v>
+      </c>
+      <c r="O21">
+        <v>0.05718956899551328</v>
+      </c>
+      <c r="P21">
+        <v>0.038867314314903</v>
+      </c>
+      <c r="Q21">
+        <v>5.4471177051225</v>
+      </c>
+      <c r="R21">
+        <v>21.78847082049</v>
+      </c>
+      <c r="S21">
+        <v>0.01299410925104067</v>
+      </c>
+      <c r="T21">
+        <v>0.006369823864788212</v>
       </c>
     </row>
   </sheetData>
